--- a/biology/Botanique/Nymphaea_nouchali/Nymphaea_nouchali.xlsx
+++ b/biology/Botanique/Nymphaea_nouchali/Nymphaea_nouchali.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nymphaea nouchali est une espèce de plantes de la famille des Nymphéacées. C'est une plante herbacée aquatique à grandes fleurs colorées, cultivée notamment pour son intérêt ornemental sur les pièces d'eau, et que l'on rencontre principalement dans les zones tropicales d'Asie, d'Australie ou d'Afrique. Elle a aussi un intérêt médicinal et alimentaire.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Illustration de 1852
@@ -547,10 +561,12 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire des zones tempérées et tropicales d'Asie, cette espèce est aussi présente en Australie et dans une bonne partie de l'Afrique tropicale[4].
-Elle affectionne les eaux stagnantes où elle flotte en surface, fixée au fond par des racines[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire des zones tempérées et tropicales d'Asie, cette espèce est aussi présente en Australie et dans une bonne partie de l'Afrique tropicale.
+Elle affectionne les eaux stagnantes où elle flotte en surface, fixée au fond par des racines.
 </t>
         </is>
       </c>
@@ -579,16 +595,53 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Cette espèce a été décrite en 1768 par le botaniste néerlandais Nicolaas Laurens Burman (1734-1793).
-En classification phylogénétique APG IV (2016)[5] comme c'était déjà le cas en classification phylogénétique APG III (2009)[6], elle fait partie du genre Nymphaea, lui-même assigné à la famille des Nymphaeaceae.
-Liste des variétés
-Le nombre de variétés admises fait débat au sein des spécialistes.
-Selon The Plant List            (9 décembre 2018)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce a été décrite en 1768 par le botaniste néerlandais Nicolaas Laurens Burman (1734-1793).
+En classification phylogénétique APG IV (2016) comme c'était déjà le cas en classification phylogénétique APG III (2009), elle fait partie du genre Nymphaea, lui-même assigné à la famille des Nymphaeaceae.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nymphaea_nouchali</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nymphaea_nouchali</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Le nombre de variétés admises fait débat au sein des spécialistes.
+Selon The Plant List            (9 décembre 2018) :
 variété Nymphaea nouchali var. caerulea (Savigny) Verdc. - le Lotus bleu
 variété Nymphaea nouchali var. versicolor (Sims) R.Ansari &amp; Jeeja
-Selon Catalogue of Life                                   (9 décembre 2018)[7] :
+Selon Catalogue of Life                                   (9 décembre 2018) :
 variété Nymphaea nouchali var. caerulea (Savigny) Verdc. - le Lotus bleu
 variété Nymphaea nouchali var. mutandaensis Verdc.
 variété Nymphaea nouchali var. ovalifolia (Conard) Verdc.
@@ -599,33 +652,35 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Nymphaea_nouchali</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Nymphaea_nouchali</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est une plante horticole cultivée pour sa valeur ornementale. On lui attribue aussi des propriétés médicinales dans le traitement des affections du foie et du diabète. Au Laos et au Cambodge, elle est consommée comme légume[4].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une plante horticole cultivée pour sa valeur ornementale. On lui attribue aussi des propriétés médicinales dans le traitement des affections du foie et du diabète. Au Laos et au Cambodge, elle est consommée comme légume.
 </t>
         </is>
       </c>
